--- a/Proyectos/2016/1/P1425 - AECCON2, AECBAN, Ubaldo Crespo_MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1425 - AECCON2, AECBAN, Ubaldo Crespo_MO/Calidad/No_conformidades.xlsx
@@ -310,7 +310,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -382,9 +382,7 @@
       <c r="D4" s="5" t="n">
         <v>42395</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>42402</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -403,9 +401,7 @@
       <c r="D5" s="5" t="n">
         <v>42395</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>42398</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
